--- a/Test Artifacts/TestCases.xlsx
+++ b/Test Artifacts/TestCases.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name=" Reference Table" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TestCases!$A$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +22,452 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="146">
+  <si>
+    <t>Project Name: Notes Application (Task Management Tool)</t>
+  </si>
+  <si>
+    <t>Date of Creation</t>
+  </si>
+  <si>
+    <t>Prepared By</t>
+  </si>
+  <si>
+    <t>Application Under Test URL</t>
+  </si>
+  <si>
+    <t>Anjila Tripathi</t>
+  </si>
+  <si>
+    <t>https://practice.expandtesting.com/notes/app</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step Action </t>
+  </si>
+  <si>
+    <t>Actual Output</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority </t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Data </t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Register with valid details</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1. Go to registration page; 2. Enter valid username, email, password; 3. Submit form</t>
+  </si>
+  <si>
+    <t>Username: testuser; Email: test@example.com; Password: Test@123</t>
+  </si>
+  <si>
+    <t>User is registered successfully and redirected to login</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Positive scenario</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>Register with existing email</t>
+  </si>
+  <si>
+    <t>1. Go to registration page; 2. Enter existing email; 3. Submit form</t>
+  </si>
+  <si>
+    <t>Email: existing@example.com</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'Email already exists'</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Negative scenario</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>Register with invalid email format</t>
+  </si>
+  <si>
+    <t>1. Go to registration page; 2. Enter invalid email; 3. Submit form</t>
+  </si>
+  <si>
+    <t>Email: invalidemail</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'Enter valid email'</t>
+  </si>
+  <si>
+    <t>TC_004</t>
+  </si>
+  <si>
+    <t>Register with blank username</t>
+  </si>
+  <si>
+    <t>1. Go to registration page; 2. Leave username blank; 3. Submit form</t>
+  </si>
+  <si>
+    <t>Username: ; Email: test@example.com; Password: Test@123</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'Username is required'</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
+    <t>Register with blank password</t>
+  </si>
+  <si>
+    <t>1. Go to registration page; 2. Leave password blank; 3. Submit form</t>
+  </si>
+  <si>
+    <t>Username: testuser; Email: test@example.com; Password:</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'Password is required'</t>
+  </si>
+  <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Login with valid credentials</t>
+  </si>
+  <si>
+    <t>User registered</t>
+  </si>
+  <si>
+    <t>1. Go to login page; 2. Enter valid email and password; 3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: test@example.com; Password: Test@123</t>
+  </si>
+  <si>
+    <t>User is logged in and redirected to dashboard</t>
+  </si>
+  <si>
+    <t>TC_007</t>
+  </si>
+  <si>
+    <t>Login with invalid password</t>
+  </si>
+  <si>
+    <t>1. Go to login page; 2. Enter valid email and wrong password; 3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: test@example.com; Password: wrongpass</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'Invalid credentials'</t>
+  </si>
+  <si>
+    <t>TC_008</t>
+  </si>
+  <si>
+    <t>Login with unregistered email</t>
+  </si>
+  <si>
+    <t>1. Go to login page; 2. Enter unregistered email; 3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: unknown@example.com; Password: Test@123</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'User not found'</t>
+  </si>
+  <si>
+    <t>TC_009</t>
+  </si>
+  <si>
+    <t>Login with blank email</t>
+  </si>
+  <si>
+    <t>1. Go to login page; 2. Leave email blank; 3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: ; Password: Test@123</t>
+  </si>
+  <si>
+    <t>Error message displayed: 'Email is required'</t>
+  </si>
+  <si>
+    <t>TC_010</t>
+  </si>
+  <si>
+    <t>Login with blank password</t>
+  </si>
+  <si>
+    <t>1. Go to login page; 2. Leave password blank; 3. Click Login</t>
+  </si>
+  <si>
+    <t>Email: test@example.com; Password:</t>
+  </si>
+  <si>
+    <t>TC_011</t>
+  </si>
+  <si>
+    <t>Notes CRUD</t>
+  </si>
+  <si>
+    <t>Create note with valid data</t>
+  </si>
+  <si>
+    <t>User logged in</t>
+  </si>
+  <si>
+    <t>1. Click 'Create Note'; 2. Enter title and content; 3. Save note</t>
+  </si>
+  <si>
+    <t>Title: Meeting; Content: Discuss project</t>
+  </si>
+  <si>
+    <t>Note is created and visible in notes list</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>TC_012</t>
+  </si>
+  <si>
+    <t>Create note with blank title</t>
+  </si>
+  <si>
+    <t>1. Click 'Create Note'; 2. Leave title blank; 3. Save note</t>
+  </si>
+  <si>
+    <t>Title: ; Content: Discuss project</t>
+  </si>
+  <si>
+    <t>Error message: 'Title is required'</t>
+  </si>
+  <si>
+    <t>TC_013</t>
+  </si>
+  <si>
+    <t>Create note with blank content</t>
+  </si>
+  <si>
+    <t>1. Click 'Create Note'; 2. Leave content blank; 3. Save note</t>
+  </si>
+  <si>
+    <t>Title: Meeting; Content:</t>
+  </si>
+  <si>
+    <t>Error message: 'Content is required'</t>
+  </si>
+  <si>
+    <t>TC_014</t>
+  </si>
+  <si>
+    <t>Create note with long title (&gt;255 chars)</t>
+  </si>
+  <si>
+    <t>1. Click 'Create Note'; 2. Enter title &gt;255 chars; 3. Save note</t>
+  </si>
+  <si>
+    <t>Title: (long string); Content: Test</t>
+  </si>
+  <si>
+    <t>Error message: 'Title too long'</t>
+  </si>
+  <si>
+    <t>TC_015</t>
+  </si>
+  <si>
+    <t>Edit existing note successfully</t>
+  </si>
+  <si>
+    <t>Note exists</t>
+  </si>
+  <si>
+    <t>1. Select note; 2. Click 'Edit'; 3. Update title/content; 4. Save</t>
+  </si>
+  <si>
+    <t>Title: Updated Meeting; Content: Updated content</t>
+  </si>
+  <si>
+    <t>Note is updated with new content</t>
+  </si>
+  <si>
+    <t>TC_016</t>
+  </si>
+  <si>
+    <t>Edit note with blank title</t>
+  </si>
+  <si>
+    <t>1. Select note; 2. Click 'Edit'; 3. Leave title blank; 4. Save</t>
+  </si>
+  <si>
+    <t>Title: ; Content: Updated content</t>
+  </si>
+  <si>
+    <t>TC_017</t>
+  </si>
+  <si>
+    <t>Edit note with blank content</t>
+  </si>
+  <si>
+    <t>1. Select note; 2. Click 'Edit'; 3. Leave content blank; 4. Save</t>
+  </si>
+  <si>
+    <t>Title: Updated Meeting; Content:</t>
+  </si>
+  <si>
+    <t>TC_018</t>
+  </si>
+  <si>
+    <t>Delete existing note</t>
+  </si>
+  <si>
+    <t>1. Select note; 2. Click 'Delete'; 3. Confirm deletion</t>
+  </si>
+  <si>
+    <t>Note is removed from notes list</t>
+  </si>
+  <si>
+    <t>TC_019</t>
+  </si>
+  <si>
+    <t>Delete note that does not exist</t>
+  </si>
+  <si>
+    <t>1. Attempt to delete a note ID that does not exist</t>
+  </si>
+  <si>
+    <t>Note ID: 999</t>
+  </si>
+  <si>
+    <t>Error message: 'Note not found'</t>
+  </si>
+  <si>
+    <t>TC_020</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Verify responsive design</t>
+  </si>
+  <si>
+    <t>1. Resize browser window; 2. Check layout</t>
+  </si>
+  <si>
+    <t>Layout adjusts correctly for all screen sizes</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>TC_021</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>SQL Injection in note creation</t>
+  </si>
+  <si>
+    <t>1. Enter SQL command in title/content; 2. Save note</t>
+  </si>
+  <si>
+    <t>Title: ' OR '1'='1; Content: Test</t>
+  </si>
+  <si>
+    <t>Application should reject input and not crash</t>
+  </si>
+  <si>
+    <t>TC_022</t>
+  </si>
+  <si>
+    <t>Cross-site scripting (XSS) in note creation</t>
+  </si>
+  <si>
+    <t>1. Enter script tags in title/content; 2. Save note</t>
+  </si>
+  <si>
+    <t>Title: &lt;script&gt;alert(1)&lt;/script&gt;; Content: Test</t>
+  </si>
+  <si>
+    <t>Application should sanitize input and not execute script</t>
+  </si>
+  <si>
+    <t>TC_023</t>
+  </si>
+  <si>
+    <t>Create note without login</t>
+  </si>
+  <si>
+    <t>1. Go to 'Create Note' page without logging in; 2. Attempt to save note</t>
+  </si>
+  <si>
+    <t>Title: Test; Content: Test</t>
+  </si>
+  <si>
+    <t>Error message: 'Please login first'</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +475,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,14 +537,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,12 +896,994 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="54.5546875" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="66.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1">
+      <formula1>"High,Medium,Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>